--- a/waste sources.xlsx
+++ b/waste sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TU DELFT - Master Thesis\UF-DecisionMaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3E32023-2EE6-4AD3-8B89-9392EEC2FB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FBD57A-4C6F-4451-B33A-FEE4A62B20D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{235D08A3-7C31-4DAF-A469-321C77CB3ACD}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t>waste name</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>quantity</t>
+  </si>
+  <si>
+    <t>tag</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE262808-D85C-4718-80DC-A7E8DECF2603}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,7 +479,7 @@
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,13 +487,16 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -498,13 +504,16 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -512,13 +521,16 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -526,13 +538,16 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -540,13 +555,16 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -554,13 +572,16 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -568,13 +589,16 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -582,13 +606,16 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -596,13 +623,16 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -610,13 +640,16 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
         <v>17</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -624,13 +657,16 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -638,9 +674,12 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>10</v>
       </c>
     </row>
